--- a/biology/Neurosciences/Jean_Lhermitte/Jean_Lhermitte.xlsx
+++ b/biology/Neurosciences/Jean_Lhermitte/Jean_Lhermitte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Jacques Lhermitte, né le 20 janvier 1877 à Mont-Saint-Père (Aisne) et mort le 24 janvier 1959 à Paris, est un neurologue et psychiatre français. Il a donné son nom à un terme médical appelé  « Signe de Lhermitte ».
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du peintre Léon Lhermitte et le père de François Lhermitte.
 Au cours de ses études à la Faculté de médecine de Paris, il a pour enseignants Gustave Roussy, Fulgence Raymond et Pierre Marie. Il est externe puis Interne des Hôpitaux de Paris.
 Il est chef de clinique et de laboratoire à l'Hospice de la Salpêtrière dans la clinique des Maladies du Système Nerveux, puis chef de laboratoire du professeur Pierre Marie jusqu'en 1914.
 Il est médecin chef du Centre neurologique de la VIIIe Région (Bourges) sous la direction d'Henri Claude de 1915 à 1919, puis du Service à l’hôpital Paul-Brousse (Villejuif).
 Il devient professeur agrégé de Psychiatrie en 1923, il fait sa leçon inaugurale liant la physiologie et la psychiatrie la même année, puis professeur honoraire à la Faculté de médecine de Paris en 1948.
-Il entre comme membre à l'Académie de médecine en 1942. Il fut promu commandeur de la Légion d'honneur en 1955. Il meurt le 24 janvier 1959 en son domicile dans le 8e arrondissement de Paris[1]
+Il entre comme membre à l'Académie de médecine en 1942. Il fut promu commandeur de la Légion d'honneur en 1955. Il meurt le 24 janvier 1959 en son domicile dans le 8e arrondissement de Paris
 Il a été, entre autres, directeur de la revue L'Encéphale, membre du comité de direction de la Revue neurologique, de Confinia Neurologica et de la Monatsschrift für Neurologie und Psychiatrie, ainsi que président de la Société de neurologie de Paris, de la Société médico-psychologique et de l'École des parents et des éducateurs.
 </t>
         </is>
@@ -548,7 +562,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de la Légion d'honneur (1955).</t>
         </is>
@@ -578,9 +594,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Hallucinose de Lhermitte: hallucinose pédonculaire[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hallucinose de Lhermitte: hallucinose pédonculaire
 Signe de Lhermitte
 Syndrome de Lhermitte
 Syndrome de Lhermitte-Cornil-Quesnel
@@ -615,7 +633,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Étude sur les paraplégies des vieillards. Paris, Maretheux, 1907.
 Les techniques anatomopathologiques du système nerveux, anatomie macroscopique et histologique (en collaboration avec Gustave Roussy, préface de Pierre Marie. Paris : Masson, 1913.
@@ -663,7 +683,9 @@
           <t>Préface d'ouvrage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Orgler, Hertha. Alfred Adler et son œuvre, libération du complexe d'infériorité, traduit de l'anglais par Madeleine Dreyfus. Paris, Delamain et Boutelleau, 1955.
 Friant, Madeleine. Anatomie comparée du cerveau. Paris, Éditions Prisma, 1947.
@@ -712,7 +734,9 @@
           <t>Sources biographiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Porter Fernand. Lhermitte, Dr Jean in Guides en éducation. Anthologie bio-bibliographique. France/Belgique/Suisse. Les éditions franciscaines. Montréal, 1954, 136-137.
 Delay Jean. Jean Lhermitte (1877-1959). Presse Med. 12 mars 1960, 68, 505-507.
